--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>type</t>
   </si>
@@ -121,6 +121,27 @@
   </si>
   <si>
     <t>http://www.w3school.com.cn/</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>juejin</t>
+  </si>
+  <si>
+    <t>掘金</t>
+  </si>
+  <si>
+    <t>https://juejin.im/</t>
+  </si>
+  <si>
+    <t>devtoutiao</t>
+  </si>
+  <si>
+    <t>开发者头条</t>
+  </si>
+  <si>
+    <t>https://toutiao.io/latest</t>
   </si>
 </sst>
 </file>
@@ -128,9 +149,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -150,9 +171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,44 +194,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,60 +287,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,97 +322,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,78 +503,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,36 +527,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,13 +555,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,9 +581,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +604,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,133 +648,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1245,6 +1266,34 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>type</t>
   </si>
@@ -142,6 +142,27 @@
   </si>
   <si>
     <t>https://toutiao.io/latest</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>m80s</t>
+  </si>
+  <si>
+    <t>80s电影下载</t>
+  </si>
+  <si>
+    <t>https://www.80s.tw/</t>
+  </si>
+  <si>
+    <t>m9527</t>
+  </si>
+  <si>
+    <t>9527电影天堂</t>
+  </si>
+  <si>
+    <t>https://www.80s.tt/</t>
   </si>
 </sst>
 </file>
@@ -151,8 +172,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -172,6 +193,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,7 +207,83 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,82 +297,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,21 +315,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,19 +343,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,163 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +552,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -546,15 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -566,15 +602,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,17 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,16 +669,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,115 +687,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1294,6 +1315,34 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\Coding\UtilPage\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF9097C-7E19-43DA-BC19-2F3F394F5989}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ED2DE6-FA38-4680-ADC6-2C4E55E10F0D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22943" windowHeight="9923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$25</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>type</t>
   </si>
@@ -258,20 +261,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eq</t>
-    </r>
+    <t>https://github.com/xitu/gold-miner</t>
+  </si>
+  <si>
+    <t>掘金翻译</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>junjinfy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mubu.com/list</t>
+  </si>
+  <si>
+    <t>幕布</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mubu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wentu.io/my#/lib</t>
+  </si>
+  <si>
+    <t>文图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wentu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tushuo.baidu.com/wave/index#/gallery</t>
+  </si>
+  <si>
+    <t>图说</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tushuo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://convertio.co/zh/</t>
+  </si>
+  <si>
+    <t>文件转换器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileTrans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://shimo.im/desktop</t>
+  </si>
+  <si>
+    <t>石墨文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shimo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://note.youdao.com/web/#/file/recent/note</t>
+  </si>
+  <si>
+    <t>有道云笔记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>youdaonote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shouqu.me/my.html</t>
+  </si>
+  <si>
+    <t>收趣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shouqu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -665,7 +751,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -923,47 +1009,189 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F25" xr:uid="{ED900763-F030-41B0-A407-2BBCC49128A1}">
+    <sortState ref="A2:F25">
+      <sortCondition ref="B2:B25"/>
+      <sortCondition ref="A2:A25"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:F17">
     <sortCondition ref="B2:B17"/>
     <sortCondition ref="A2:A17"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>

--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\Coding\UtilPage\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ED2DE6-FA38-4680-ADC6-2C4E55E10F0D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22943" windowHeight="9923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+  <si>
+    <t>Seq</t>
+  </si>
   <si>
     <t>type</t>
   </si>
@@ -42,25 +39,94 @@
     <t>js</t>
   </si>
   <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>drawIo</t>
-  </si>
-  <si>
-    <t>流程图</t>
-  </si>
-  <si>
-    <t>https://www.draw.io/</t>
-  </si>
-  <si>
-    <t>colorPicker</t>
-  </si>
-  <si>
-    <t>常用颜色选取</t>
-  </si>
-  <si>
-    <t>http://w3schools.bootcss.com/colors/colors_picker.html</t>
+    <t>api</t>
+  </si>
+  <si>
+    <t>apidocs</t>
+  </si>
+  <si>
+    <t>APIDocs</t>
+  </si>
+  <si>
+    <t>http://devdocs.io/</t>
+  </si>
+  <si>
+    <t>pwalavas</t>
+  </si>
+  <si>
+    <t>PWA(Lavas)</t>
+  </si>
+  <si>
+    <t>https://lavas.baidu.com/pwa</t>
+  </si>
+  <si>
+    <t>lavas</t>
+  </si>
+  <si>
+    <t>Lavas</t>
+  </si>
+  <si>
+    <t>https://lavas.baidu.com/guide</t>
+  </si>
+  <si>
+    <t>nodejs</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>https://npm.taobao.org/mirrors/node/latest/docs/api/index.html</t>
+  </si>
+  <si>
+    <t>underscore</t>
+  </si>
+  <si>
+    <t>Underscore</t>
+  </si>
+  <si>
+    <t>http://www.css88.com/doc/underscore/#</t>
+  </si>
+  <si>
+    <t>w3school</t>
+  </si>
+  <si>
+    <t>W3school</t>
+  </si>
+  <si>
+    <t>http://www.w3school.com.cn/</t>
+  </si>
+  <si>
+    <t>async</t>
+  </si>
+  <si>
+    <t>async.js</t>
+  </si>
+  <si>
+    <t>http://caolan.github.io/async/</t>
+  </si>
+  <si>
+    <t>vuejs</t>
+  </si>
+  <si>
+    <t>vue.js</t>
+  </si>
+  <si>
+    <t>https://cn.vuejs.org/v2/api/</t>
+  </si>
+  <si>
+    <t>reactjs</t>
+  </si>
+  <si>
+    <t>react.js</t>
+  </si>
+  <si>
+    <t>https://github.com/ruanyf/react-demos</t>
+  </si>
+  <si>
+    <t>bootstrap</t>
+  </si>
+  <si>
+    <t>http://www.bootcss.com/</t>
   </si>
   <si>
     <t>job</t>
@@ -69,145 +135,31 @@
     <t>fintUat</t>
   </si>
   <si>
+    <t>权盈金服 UAT</t>
+  </si>
+  <si>
     <t>http://uat.fintgroup.com/</t>
   </si>
   <si>
     <t>fintProd</t>
   </si>
   <si>
+    <t>权盈金服 Prod</t>
+  </si>
+  <si>
     <t>http://prod.fintgroup.com/</t>
   </si>
   <si>
     <t>mbkProd</t>
   </si>
   <si>
-    <t>https://m.bochk.com</t>
-  </si>
-  <si>
-    <t>abkProd</t>
-  </si>
-  <si>
-    <t>https://mb.bochk.com</t>
-  </si>
-  <si>
-    <t>api</t>
-  </si>
-  <si>
-    <t>nodejs</t>
-  </si>
-  <si>
-    <t>Node.js</t>
-  </si>
-  <si>
-    <t>https://npm.taobao.org/mirrors/node/latest/docs/api/index.html</t>
-  </si>
-  <si>
-    <t>underscore</t>
-  </si>
-  <si>
-    <t>Underscore</t>
-  </si>
-  <si>
-    <t>http://www.css88.com/doc/underscore/#</t>
-  </si>
-  <si>
-    <t>w3school</t>
-  </si>
-  <si>
-    <t>W3school</t>
-  </si>
-  <si>
-    <t>http://www.w3school.com.cn/</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>juejin</t>
-  </si>
-  <si>
-    <t>掘金</t>
-  </si>
-  <si>
-    <t>https://juejin.im/</t>
-  </si>
-  <si>
-    <t>devtoutiao</t>
-  </si>
-  <si>
-    <t>开发者头条</t>
-  </si>
-  <si>
-    <t>https://toutiao.io/latest</t>
-  </si>
-  <si>
-    <t>movie</t>
-  </si>
-  <si>
-    <t>m80s</t>
-  </si>
-  <si>
-    <t>80s电影下载</t>
-  </si>
-  <si>
-    <t>https://www.80s.tw/</t>
-  </si>
-  <si>
-    <t>m9527</t>
-  </si>
-  <si>
-    <t>9527电影天堂</t>
-  </si>
-  <si>
-    <t>https://www.80s.tt/</t>
-  </si>
-  <si>
-    <t>https://lavas.baidu.com/guide</t>
-  </si>
-  <si>
-    <t>Lavas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lavas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lavas.baidu.com/pwa</t>
-  </si>
-  <si>
-    <t>PWA(Lavas)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwalavas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://devdocs.io/</t>
-  </si>
-  <si>
-    <t>APIDocs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apidocs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权盈金服 UAT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>权盈金服 Prod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>MBK</t>
     </r>
     <r>
@@ -215,9 +167,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -225,16 +175,25 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Prod</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.bochk.com</t>
+  </si>
+  <si>
+    <t>abkProd</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>ABK</t>
     </r>
     <r>
@@ -242,9 +201,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -252,120 +209,179 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Prod</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mb.bochk.com</t>
+  </si>
+  <si>
+    <t>movie</t>
+  </si>
+  <si>
+    <t>m80s</t>
+  </si>
+  <si>
+    <t>80s电影下载</t>
+  </si>
+  <si>
+    <t>https://www.80s.tw/</t>
+  </si>
+  <si>
+    <t>m9527</t>
+  </si>
+  <si>
+    <t>9527电影天堂</t>
+  </si>
+  <si>
+    <t>https://www.80s.tt/</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>juejin</t>
+  </si>
+  <si>
+    <t>掘金</t>
+  </si>
+  <si>
+    <t>https://juejin.im/</t>
+  </si>
+  <si>
+    <t>devtoutiao</t>
+  </si>
+  <si>
+    <t>开发者头条</t>
+  </si>
+  <si>
+    <t>https://toutiao.io/latest</t>
+  </si>
+  <si>
+    <t>junjinfy</t>
+  </si>
+  <si>
+    <t>掘金翻译</t>
   </si>
   <si>
     <t>https://github.com/xitu/gold-miner</t>
   </si>
   <si>
-    <t>掘金翻译</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>junjinfy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tech</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>shouqu</t>
+  </si>
+  <si>
+    <t>收趣</t>
+  </si>
+  <si>
+    <t>http://shouqu.me/my.html</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>drawIo</t>
+  </si>
+  <si>
+    <t>流程图</t>
+  </si>
+  <si>
+    <t>https://www.draw.io/</t>
+  </si>
+  <si>
+    <t>colorPicker</t>
+  </si>
+  <si>
+    <t>常用颜色选取</t>
+  </si>
+  <si>
+    <t>http://w3schools.bootcss.com/colors/colors_picker.html</t>
+  </si>
+  <si>
+    <t>mubu</t>
+  </si>
+  <si>
+    <t>幕布</t>
   </si>
   <si>
     <t>https://mubu.com/list</t>
   </si>
   <si>
-    <t>幕布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mubu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>wentu</t>
+  </si>
+  <si>
+    <t>文图</t>
   </si>
   <si>
     <t>https://wentu.io/my#/lib</t>
   </si>
   <si>
-    <t>文图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wentu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>tushuo</t>
+  </si>
+  <si>
+    <t>图说</t>
   </si>
   <si>
     <t>http://tushuo.baidu.com/wave/index#/gallery</t>
   </si>
   <si>
-    <t>图说</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tushuo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>fileTrans</t>
+  </si>
+  <si>
+    <t>文件转换器</t>
   </si>
   <si>
     <t>https://convertio.co/zh/</t>
   </si>
   <si>
-    <t>文件转换器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fileTrans</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>shimo</t>
+  </si>
+  <si>
+    <t>石墨文档</t>
   </si>
   <si>
     <t>https://shimo.im/desktop</t>
   </si>
   <si>
-    <t>石墨文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shimo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>youdaonote</t>
+  </si>
+  <si>
+    <t>有道云笔记</t>
   </si>
   <si>
     <t>https://note.youdao.com/web/#/file/recent/note</t>
   </si>
   <si>
-    <t>有道云笔记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>youdaonote</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shouqu.me/my.html</t>
-  </si>
-  <si>
-    <t>收趣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shouqu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>baidunaotu</t>
+  </si>
+  <si>
+    <t>百度脑图</t>
+  </si>
+  <si>
+    <t>http://naotu.baidu.com/home</t>
+  </si>
+  <si>
+    <t>qrcode</t>
+  </si>
+  <si>
+    <t>二维码</t>
+  </si>
+  <si>
+    <t>https://cli.im/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,21 +398,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,12 +558,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -433,16 +772,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,25 +1030,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -728,501 +1352,610 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86111111111111" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="5.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.46484375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.462962962963" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.66666666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="E14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F25" xr:uid="{ED900763-F030-41B0-A407-2BBCC49128A1}">
-    <sortState ref="A2:F25">
+  <autoFilter ref="A1:F25">
+    <sortState ref="A1:F25">
       <sortCondition ref="B2:B25"/>
       <sortCondition ref="A2:A25"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <sortState ref="A2:F17">
-    <sortCondition ref="B2:B17"/>
-    <sortCondition ref="A2:A17"/>
+  <sortState ref="A2:F29">
+    <sortCondition ref="B2:B29"/>
+    <sortCondition ref="A2:A29"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E22" r:id="rId1" display="https://www.draw.io/"/>
+    <hyperlink ref="E23" r:id="rId2" display="http://w3schools.bootcss.com/colors/colors_picker.html"/>
+    <hyperlink ref="E13" r:id="rId3" display="http://prod.fintgroup.com/"/>
+    <hyperlink ref="E14" r:id="rId4" display="https://m.bochk.com"/>
+    <hyperlink ref="E15" r:id="rId5" display="https://mb.bochk.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86111111111111" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86111111111111" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>Seq</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>http://www.bootcss.com/</t>
+  </si>
+  <si>
+    <t>rxjs</t>
+  </si>
+  <si>
+    <t>http://cn.rx.js.org/</t>
   </si>
   <si>
     <t>job</t>
@@ -175,6 +181,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Prod</t>
@@ -209,6 +216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>Prod</t>
@@ -278,6 +286,15 @@
     <t>http://shouqu.me/my.html</t>
   </si>
   <si>
+    <t>webtech</t>
+  </si>
+  <si>
+    <t>Web 技术文档</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/zh-CN/docs/Web</t>
+  </si>
+  <si>
     <t>tool</t>
   </si>
   <si>
@@ -369,6 +386,36 @@
   </si>
   <si>
     <t>https://cli.im/</t>
+  </si>
+  <si>
+    <t>easyicon</t>
+  </si>
+  <si>
+    <t>http://www.easyicon.net/</t>
+  </si>
+  <si>
+    <t>iconpng</t>
+  </si>
+  <si>
+    <t>http://www.iconpng.com/</t>
+  </si>
+  <si>
+    <t>iconfont</t>
+  </si>
+  <si>
+    <t>http://www.iconfont.cn/plus</t>
+  </si>
+  <si>
+    <t>bootcdn</t>
+  </si>
+  <si>
+    <t>http://www.bootcdn.cn/</t>
+  </si>
+  <si>
+    <t>websafecolor</t>
+  </si>
+  <si>
+    <t>http://www.bootcss.com/p/websafecolors/</t>
   </si>
 </sst>
 </file>
@@ -398,13 +445,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -427,22 +467,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -452,24 +476,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -481,7 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +521,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,29 +590,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,67 +610,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,13 +718,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,97 +772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,22 +813,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,31 +832,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,17 +852,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,149 +918,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,10 +1073,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1358,10 +1401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86111111111111" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1565,155 +1608,155 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1721,206 +1764,328 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>99</v>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>12</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F25">
-    <sortState ref="A1:F25">
+  <autoFilter ref="A1:F31">
+    <sortState ref="A1:F31">
       <sortCondition ref="B2:B25"/>
       <sortCondition ref="A2:A25"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:F29">
-    <sortCondition ref="B2:B29"/>
-    <sortCondition ref="A2:A29"/>
+  <sortState ref="A2:F37">
+    <sortCondition ref="B2:B37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1" display="https://www.draw.io/"/>
-    <hyperlink ref="E23" r:id="rId2" display="http://w3schools.bootcss.com/colors/colors_picker.html"/>
-    <hyperlink ref="E13" r:id="rId3" display="http://prod.fintgroup.com/"/>
-    <hyperlink ref="E14" r:id="rId4" display="https://m.bochk.com"/>
-    <hyperlink ref="E15" r:id="rId5" display="https://mb.bochk.com"/>
+    <hyperlink ref="E24" r:id="rId1" display="https://www.draw.io/"/>
+    <hyperlink ref="E25" r:id="rId2" display="http://w3schools.bootcss.com/colors/colors_picker.html"/>
+    <hyperlink ref="E14" r:id="rId3" display="http://prod.fintgroup.com/"/>
+    <hyperlink ref="E15" r:id="rId4" display="https://m.bochk.com"/>
+    <hyperlink ref="E16" r:id="rId5" display="https://mb.bochk.com"/>
+    <hyperlink ref="E23" r:id="rId6" display="https://developer.mozilla.org/zh-CN/docs/Web"/>
+    <hyperlink ref="E34" r:id="rId7" display="http://www.easyicon.net/"/>
+    <hyperlink ref="E36" r:id="rId8" display="http://www.iconfont.cn/plus"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/files/menu.xlsx
+++ b/files/menu.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
   <si>
     <t>Seq</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>http://cn.rx.js.org/</t>
+  </si>
+  <si>
+    <t>framework7</t>
+  </si>
+  <si>
+    <t>http://framework7.io/docs/</t>
   </si>
   <si>
     <t>job</t>
@@ -423,10 +429,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -467,23 +473,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -498,9 +489,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,25 +542,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,21 +558,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,6 +581,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -610,13 +616,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,25 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,133 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,69 +819,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -896,6 +843,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -910,6 +872,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -918,10 +924,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -930,10 +936,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,115 +954,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1401,10 +1407,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86111111111111" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1625,384 +1631,384 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>107</v>
@@ -2010,16 +2016,16 @@
       <c r="D35" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>109</v>
@@ -2027,16 +2033,16 @@
       <c r="D36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>111</v>
@@ -2044,16 +2050,16 @@
       <c r="D37" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>113</v>
@@ -2065,27 +2071,44 @@
         <v>114</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F31">
-    <sortState ref="A1:F31">
+  <autoFilter ref="A1:F38">
+    <sortState ref="A1:F38">
       <sortCondition ref="B2:B25"/>
       <sortCondition ref="A2:A25"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:F37">
-    <sortCondition ref="B2:B37"/>
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:F39">
+    <sortCondition ref="B2:B39"/>
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1" display="https://www.draw.io/"/>
-    <hyperlink ref="E25" r:id="rId2" display="http://w3schools.bootcss.com/colors/colors_picker.html"/>
-    <hyperlink ref="E14" r:id="rId3" display="http://prod.fintgroup.com/"/>
-    <hyperlink ref="E15" r:id="rId4" display="https://m.bochk.com"/>
-    <hyperlink ref="E16" r:id="rId5" display="https://mb.bochk.com"/>
-    <hyperlink ref="E23" r:id="rId6" display="https://developer.mozilla.org/zh-CN/docs/Web"/>
-    <hyperlink ref="E34" r:id="rId7" display="http://www.easyicon.net/"/>
-    <hyperlink ref="E36" r:id="rId8" display="http://www.iconfont.cn/plus"/>
+    <hyperlink ref="E25" r:id="rId1" display="https://www.draw.io/"/>
+    <hyperlink ref="E26" r:id="rId2" display="http://w3schools.bootcss.com/colors/colors_picker.html"/>
+    <hyperlink ref="E15" r:id="rId3" display="http://prod.fintgroup.com/"/>
+    <hyperlink ref="E16" r:id="rId4" display="https://m.bochk.com"/>
+    <hyperlink ref="E17" r:id="rId5" display="https://mb.bochk.com"/>
+    <hyperlink ref="E24" r:id="rId6" display="https://developer.mozilla.org/zh-CN/docs/Web"/>
+    <hyperlink ref="E35" r:id="rId7" display="http://www.easyicon.net/"/>
+    <hyperlink ref="E37" r:id="rId8" display="http://www.iconfont.cn/plus"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
